--- a/MainTop/02.09.2024/печать_имена_ШК.xlsx
+++ b/MainTop/02.09.2024/печать_имена_ШК.xlsx
@@ -372,10 +372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="topLeft" activeCell="N64" activeCellId="0" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2949,20 +2949,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="0" t="n">
-        <f aca="false">SUM(H2:H70)</f>
-        <v>420</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <f aca="false">SUM(J2:J70)</f>
-        <v>439</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <f aca="false">SUM(K2:K70)</f>
-        <v>228</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
